--- a/CompIdx/合成指数-设备(年度).xlsx
+++ b/CompIdx/合成指数-设备(年度).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\铁路景气指数项目\9月计算成果\Excel数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\铁路景气指数项目\2015年\railwayIdx\CompIdx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="先行合成指数" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -483,7 +483,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
@@ -1425,31 +1425,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="51">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="常规 11" xfId="50"/>
     <cellStyle name="常规 2" xfId="42"/>
     <cellStyle name="常规 3" xfId="44"/>
@@ -1459,23 +1476,6 @@
     <cellStyle name="常规 7" xfId="48"/>
     <cellStyle name="常规 8" xfId="49"/>
     <cellStyle name="常规 9" xfId="47"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1491,9 +1491,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1505,6 +1505,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1621,6 +1622,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A47-41A2-A7D5-F6B02DAF0D07}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1672,6 +1678,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1687,9 +1694,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1806,6 +1813,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76C4-452B-8324-17F039AACABE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1907,6 +1919,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76C4-452B-8324-17F039AACABE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2017,6 +2034,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76C4-452B-8324-17F039AACABE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2089,9 +2111,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2103,6 +2125,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2216,6 +2239,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0363-4C00-B103-3BF5EB0C0581}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2267,6 +2295,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2451,7 +2480,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2740,10 +2769,10 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3893,10 +3922,10 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4630,10 +4659,10 @@
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF17" sqref="AF16:AF17"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4:AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6180,7 +6209,8 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
